--- a/001.xlsx
+++ b/001.xlsx
@@ -26,6 +26,14 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Example content</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
@@ -34,8 +42,16 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -187,12 +203,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -507,55 +529,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,75 +589,81 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,11 +1202,20 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
